--- a/S_LOGOUT/Assets/Resources/YooJung/ExcelData/game/game_mainStory.xlsx
+++ b/S_LOGOUT/Assets/Resources/YooJung/ExcelData/game/game_mainStory.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/moon/Downloads/S_LOGOUTf/Assets/Resources/YooJung/ExcelData/game/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/moon/Downloads/Proj/Assets/Resources/YooJung/ExcelData/game/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AAFE371-086A-CC4B-B8A1-DC1E9ED1461E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C138C13B-8913-E24E-9AEC-D45DA50CAEC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3760" yWindow="2200" windowWidth="28300" windowHeight="17440" xr2:uid="{3A795709-8B33-A84B-BFDB-1874F2F0F538}"/>
+    <workbookView xWindow="17920" yWindow="500" windowWidth="17920" windowHeight="21900" xr2:uid="{3A795709-8B33-A84B-BFDB-1874F2F0F538}"/>
   </bookViews>
   <sheets>
     <sheet name="main_g" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="114">
   <si>
     <t>index</t>
   </si>
@@ -54,15 +54,6 @@
     <t>나</t>
   </si>
   <si>
-    <t>됐어됐어ㅋㅋ졌잘싸 담판 가자</t>
-  </si>
-  <si>
-    <t>엥 이거 진짜네 이렇게까지해서 증명한다고? 뭐 쨌든 감사</t>
-  </si>
-  <si>
-    <t>잘쓸게</t>
-  </si>
-  <si>
     <t>누구든…4명 다 잘 나왔으니까 올렸겠지ㅋㅋ</t>
   </si>
   <si>
@@ -84,12 +75,6 @@
     <t>내가 열심히 봐줄 테니까 앞으로 나랑 놀아</t>
   </si>
   <si>
-    <t>엉 수업 끝나고 들어와</t>
-  </si>
-  <si>
-    <t>하..12시…낼봐</t>
-  </si>
-  <si>
     <t>셧다운제 진짜 누가 만든거야 12시면 칼같이 튕기는 거 너무 화난다</t>
   </si>
   <si>
@@ -117,15 +102,6 @@
     <t>우리 함께한 시간이 있으니까ㅋㅋ보여줄게</t>
   </si>
   <si>
-    <t>우리 방학에 한번 만날래?</t>
-  </si>
-  <si>
-    <t>ㅋㅋ고민 좀 해볼게</t>
-  </si>
-  <si>
-    <t>야 나 스팀배그 계정 뚫음 이제 셧다운 안걸림</t>
-  </si>
-  <si>
     <t>헐 부럽 부모님 거로?</t>
   </si>
   <si>
@@ -168,18 +144,6 @@
     <t>그래 잘자~</t>
   </si>
   <si>
-    <t>아 친구랑 할 일이 있어서 오늘은 배그 못함ㅠ</t>
-  </si>
-  <si>
-    <t>아 ㅇㅋ 서운할 뻔</t>
-  </si>
-  <si>
-    <t>나 혼자 두지마 울거야ㅜㅋㅋ</t>
-  </si>
-  <si>
-    <t>앜ㅋㅋㅋ오구 그랬어요</t>
-  </si>
-  <si>
     <t>오늘 데려다줘서 고마워 잘가!</t>
   </si>
   <si>
@@ -198,12 +162,6 @@
     <t>지금 통화할래? 너 목소리 또 듣고 싶어</t>
   </si>
   <si>
-    <t>ㅇㅇ 지금 전화하면 내 섹시한 목소리 들을 수 있음ㅋㅋㅋ</t>
-  </si>
-  <si>
-    <t>레어템인데 안 궁금?</t>
-  </si>
-  <si>
     <t>으 안궁금ㅋㅋㅋㅋㅋ</t>
   </si>
   <si>
@@ -213,22 +171,13 @@
     <t>사진? 무슨 사진?</t>
   </si>
   <si>
-    <t>ㅋㅋㅋㅋㅋㅁㅊ네 ㅁㅊ어 ㅋㅋㅋ</t>
-  </si>
-  <si>
     <t>아 너 인스타에도 하나 있잖아 나를 위해서 한 장만 보내줘봐</t>
   </si>
   <si>
     <t>내가 오늘 밥도 사고 영화도 보여줬는데?ㅠ</t>
   </si>
   <si>
-    <t>안보낼거임 자라 그냥</t>
-  </si>
-  <si>
     <t>내가 부탁하는 거 하나만 하면 다 지워드림</t>
-  </si>
-  <si>
-    <t>그걸 내가 어떻게 믿음</t>
   </si>
   <si>
     <t>안 받아? 나 너 어디사는 지도 아는데?</t>
@@ -249,34 +198,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>악 나 구급상자 없어 벽뒤로 숨자 일단</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㅇㅋ</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>아 나 치킨먹게 해준다며요 지켜줬어야지</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㅋㅋ내가 치킨 사줘?</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄱㄷ</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> xxxx-xxxx-xxxx-xxxx 코드등록해봐</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>게임스킨?</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>ㅎㅇ프사 잘 나왔네</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -318,22 +239,6 @@
   </si>
   <si>
     <t>응 그래ㅎㅎ</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>이제 자자. 내일도 배그 할거?</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㅇㅋㅇㅋ</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>듀오 ㄱ</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>얍</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -357,10 +262,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>내가 배그만 하는 줄 알았지 틈틈이 운동도 했다고~</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>아니ㅋㅋ 요새 운동할 일이 없으니까 이렇게라도 하려고</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -385,10 +286,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>훈훈?</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>타인</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -397,34 +294,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>너도 훈훈해ㅎ</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>확인이요^^</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>음 나쁘지 않지 근데 갑자기?</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>아니 난 너 만나보면 좋을 것 같아서</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>너도 나 훈훈하다고 했으니까? 싫으면 어쩔 수 없고</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>알겠엉 이제 졸리다 내일 봐</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>웅</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>아니 내 이름으로 된 계정임</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -441,18 +310,10 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>ㅇㅇ아 미안 친구가 그거 이제 막혀서 좀 걸릴 것 같대..</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>아 그리고 나 너 인스타 계정 찾았어 팔로우 해도 돼?</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>ㅇㅋ 나 이제 배그 들어감</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>드루와</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -461,14 +322,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>또 이러면 그땐 나 찾아가서 무릎꿇고 빈다?ㅋㅋㅋㅋ</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>아니 ㅋㅋㅋ안빌어도 돼 놀아줄게 아싸끼리 놀아야지ㅋㅋㅋ</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>그럼 나 만나서 놀아줘~~</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -514,10 +367,6 @@
   </si>
   <si>
     <t>이거 뭔데</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>영통 받아봐</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -534,6 +383,62 @@
   </si>
   <si>
     <t>게임 ㄱ</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>내가 게임만 하는 줄 알았지 틈틈이 운동도 했다고~</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>야 나 게임 계정 뚫음 이제 셧다운 안걸림</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>야 미안 친구가 그거 이제 막혀서 좀 걸릴 것 같대..</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅇㅋ 나 이제 게임 들어감</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅇㅇ 지금 전화하면 내 목소리 들을 수 있음ㅋㅋㅋ</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅋㅋㅋㅋㅋ미쳤네 미쳤어 ㅋㅋㅋ</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄱㅊ?</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>너도 괜찮아ㅎ</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>너 합성사진 ㅋㅋ 영통 받아봐</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>흔치않은 기횐데 안 궁금?</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>땡큐^^</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>그걸 내가 어떻게 믿냐고</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>그걸 내가 어떻게 믿어</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>걍 있지 ㅋㅋ</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -944,8 +849,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2235986-AA0B-4448-ACE5-747C9329FED1}">
   <dimension ref="A1:D137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A113" workbookViewId="0">
-      <selection activeCell="C86" sqref="C86"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -977,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="D2" s="2" t="str">
         <f>IF(B2=FALSE,"타인","나")</f>
@@ -992,10 +897,10 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="D3" s="2" t="str">
-        <f t="shared" ref="D3:D57" si="0">IF(B3=FALSE,"타인","나")</f>
+        <f t="shared" ref="D3:D4" si="0">IF(B3=FALSE,"타인","나")</f>
         <v>나</v>
       </c>
     </row>
@@ -1007,7 +912,7 @@
         <v>0</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="D4" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1019,14 +924,14 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="D5" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>나</v>
+        <f>IF(B5=FALSE,"타인","나")</f>
+        <v>타인</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1034,14 +939,14 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>71</v>
+        <v>1</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>54</v>
       </c>
       <c r="D6" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>타인</v>
+        <f t="shared" ref="D6:D22" si="1">IF(B6=FALSE,"타인","나")</f>
+        <v>나</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1049,14 +954,14 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>72</v>
+        <v>0</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="D7" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>나</v>
+        <f t="shared" si="1"/>
+        <v>타인</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1064,14 +969,14 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="D8" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>타인</v>
+        <f t="shared" si="1"/>
+        <v>나</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1079,14 +984,14 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="D9" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>나</v>
+        <f t="shared" si="1"/>
+        <v>타인</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1097,10 +1002,10 @@
         <v>0</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>74</v>
+        <v>7</v>
       </c>
       <c r="D10" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>타인</v>
       </c>
     </row>
@@ -1109,14 +1014,14 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>75</v>
+        <v>8</v>
       </c>
       <c r="D11" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>타인</v>
+        <f t="shared" si="1"/>
+        <v>나</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1127,10 +1032,10 @@
         <v>1</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>76</v>
+        <v>9</v>
       </c>
       <c r="D12" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>나</v>
       </c>
     </row>
@@ -1142,10 +1047,10 @@
         <v>1</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D13" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>나</v>
       </c>
     </row>
@@ -1154,14 +1059,14 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>8</v>
+        <v>57</v>
       </c>
       <c r="D14" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>나</v>
+        <f t="shared" si="1"/>
+        <v>타인</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1169,14 +1074,14 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="D15" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>타인</v>
+        <f t="shared" si="1"/>
+        <v>나</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1184,14 +1089,14 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>78</v>
+        <v>11</v>
       </c>
       <c r="D16" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>나</v>
+        <f t="shared" si="1"/>
+        <v>타인</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1199,14 +1104,14 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="D17" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>타인</v>
+        <f t="shared" si="1"/>
+        <v>나</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1217,10 +1122,10 @@
         <v>1</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="D18" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>나</v>
       </c>
     </row>
@@ -1232,10 +1137,10 @@
         <v>0</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="D19" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>타인</v>
       </c>
     </row>
@@ -1244,14 +1149,14 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>10</v>
+        <v>62</v>
       </c>
       <c r="D20" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>타인</v>
+        <f t="shared" si="1"/>
+        <v>나</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1259,14 +1164,14 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D21" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>나</v>
+        <f t="shared" si="1"/>
+        <v>타인</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1277,10 +1182,10 @@
         <v>1</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>12</v>
+        <v>63</v>
       </c>
       <c r="D22" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>나</v>
       </c>
     </row>
@@ -1292,10 +1197,10 @@
         <v>1</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="D23" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="D23:D41" si="2">IF(B23=FALSE,"타인","나")</f>
         <v>나</v>
       </c>
     </row>
@@ -1307,10 +1212,10 @@
         <v>0</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="D24" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>타인</v>
       </c>
     </row>
@@ -1322,10 +1227,10 @@
         <v>1</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="D25" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>나</v>
       </c>
     </row>
@@ -1334,14 +1239,14 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D26" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>타인</v>
+        <f t="shared" si="2"/>
+        <v>나</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1349,14 +1254,14 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>83</v>
+        <v>14</v>
       </c>
       <c r="D27" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>나</v>
+        <f t="shared" si="2"/>
+        <v>타인</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1364,14 +1269,14 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>84</v>
+        <v>15</v>
       </c>
       <c r="D28" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>나</v>
+        <f t="shared" si="2"/>
+        <v>타인</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1379,14 +1284,14 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="D29" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>타인</v>
+        <f t="shared" si="2"/>
+        <v>나</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1397,10 +1302,10 @@
         <v>1</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>86</v>
+        <v>16</v>
       </c>
       <c r="D30" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>나</v>
       </c>
     </row>
@@ -1412,10 +1317,10 @@
         <v>0</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D31" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>타인</v>
       </c>
     </row>
@@ -1427,10 +1332,10 @@
         <v>1</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="D32" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>나</v>
       </c>
     </row>
@@ -1442,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="D33" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>타인</v>
       </c>
     </row>
@@ -1457,10 +1362,10 @@
         <v>1</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D34" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>나</v>
       </c>
     </row>
@@ -1472,10 +1377,10 @@
         <v>0</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="D35" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>타인</v>
       </c>
     </row>
@@ -1487,10 +1392,10 @@
         <v>0</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="D36" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>타인</v>
       </c>
     </row>
@@ -1499,14 +1404,14 @@
         <v>36</v>
       </c>
       <c r="B37" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D37" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>타인</v>
+        <f t="shared" si="2"/>
+        <v>나</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1514,14 +1419,14 @@
         <v>37</v>
       </c>
       <c r="B38" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>91</v>
+        <v>20</v>
       </c>
       <c r="D38" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>나</v>
+        <f t="shared" si="2"/>
+        <v>타인</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1532,10 +1437,10 @@
         <v>1</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="D39" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>나</v>
       </c>
     </row>
@@ -1547,10 +1452,10 @@
         <v>0</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="D40" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>타인</v>
       </c>
     </row>
@@ -1559,14 +1464,14 @@
         <v>40</v>
       </c>
       <c r="B41" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>94</v>
+        <v>21</v>
       </c>
       <c r="D41" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>나</v>
+        <f t="shared" si="2"/>
+        <v>타인</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1577,11 +1482,10 @@
         <v>1</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D42" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>나</v>
+        <v>73</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1592,11 +1496,10 @@
         <v>0</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D43" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>타인</v>
+        <v>106</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1604,14 +1507,14 @@
         <v>43</v>
       </c>
       <c r="B44" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="D44" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>타인</v>
+        <f t="shared" ref="D44:D48" si="3">IF(B42=FALSE,"타인","나")</f>
+        <v>나</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1619,14 +1522,14 @@
         <v>44</v>
       </c>
       <c r="B45" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="D45" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>나</v>
+        <f t="shared" si="3"/>
+        <v>타인</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1637,10 +1540,10 @@
         <v>1</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>21</v>
+        <v>110</v>
       </c>
       <c r="D46" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>나</v>
       </c>
     </row>
@@ -1652,10 +1555,10 @@
         <v>0</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>22</v>
+        <v>101</v>
       </c>
       <c r="D47" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>타인</v>
       </c>
     </row>
@@ -1667,10 +1570,10 @@
         <v>1</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>96</v>
+        <v>22</v>
       </c>
       <c r="D48" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>나</v>
       </c>
     </row>
@@ -1679,14 +1582,14 @@
         <v>48</v>
       </c>
       <c r="B49" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="D49" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>나</v>
+        <f t="shared" ref="D49:D58" si="4">IF(B47=FALSE,"타인","나")</f>
+        <v>타인</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1700,8 +1603,8 @@
         <v>23</v>
       </c>
       <c r="D50" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>타인</v>
+        <f t="shared" si="4"/>
+        <v>나</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1712,11 +1615,11 @@
         <v>1</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="D51" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>나</v>
+        <f t="shared" si="4"/>
+        <v>타인</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1724,13 +1627,13 @@
         <v>51</v>
       </c>
       <c r="B52" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>99</v>
+        <v>24</v>
       </c>
       <c r="D52" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>타인</v>
       </c>
     </row>
@@ -1742,11 +1645,11 @@
         <v>0</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D53" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>타인</v>
+        <f t="shared" si="4"/>
+        <v>나</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1754,14 +1657,14 @@
         <v>53</v>
       </c>
       <c r="B54" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D54" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>타인</v>
+        <f t="shared" si="4"/>
+        <v>나</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1769,14 +1672,14 @@
         <v>54</v>
       </c>
       <c r="B55" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="D55" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>나</v>
+        <f t="shared" si="4"/>
+        <v>타인</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1787,11 +1690,11 @@
         <v>0</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>101</v>
+        <v>27</v>
       </c>
       <c r="D56" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>타인</v>
+        <f t="shared" si="4"/>
+        <v>나</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1802,10 +1705,10 @@
         <v>0</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D57" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>타인</v>
       </c>
     </row>
@@ -1817,10 +1720,11 @@
         <v>1</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>103</v>
+        <v>80</v>
+      </c>
+      <c r="D58" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>타인</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1831,10 +1735,10 @@
         <v>0</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>105</v>
+        <v>75</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1845,11 +1749,11 @@
         <v>1</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>106</v>
+        <v>29</v>
       </c>
       <c r="D60" s="2" t="str">
-        <f t="shared" ref="D60:D81" si="1">IF(B58=FALSE,"타인","나")</f>
-        <v>나</v>
+        <f t="shared" ref="D60:D75" si="5">IF(B57=FALSE,"타인","나")</f>
+        <v>타인</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1860,11 +1764,11 @@
         <v>0</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>107</v>
+        <v>30</v>
       </c>
       <c r="D61" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>타인</v>
+        <f t="shared" si="5"/>
+        <v>나</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1875,11 +1779,11 @@
         <v>1</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>108</v>
+        <v>31</v>
       </c>
       <c r="D62" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>나</v>
+        <f t="shared" si="5"/>
+        <v>타인</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -1890,11 +1794,11 @@
         <v>0</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>27</v>
+        <v>81</v>
       </c>
       <c r="D63" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>타인</v>
+        <f t="shared" si="5"/>
+        <v>나</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -1905,11 +1809,11 @@
         <v>1</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>109</v>
+        <v>32</v>
       </c>
       <c r="D64" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>나</v>
+        <f t="shared" si="5"/>
+        <v>타인</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -1917,14 +1821,14 @@
         <v>64</v>
       </c>
       <c r="B65" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>110</v>
+        <v>33</v>
       </c>
       <c r="D65" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>타인</v>
+        <f t="shared" si="5"/>
+        <v>나</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -1935,11 +1839,11 @@
         <v>0</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="D66" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>나</v>
+        <f t="shared" si="5"/>
+        <v>타인</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -1950,11 +1854,11 @@
         <v>1</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>28</v>
+        <v>82</v>
       </c>
       <c r="D67" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>타인</v>
+        <f t="shared" si="5"/>
+        <v>나</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -1962,14 +1866,14 @@
         <v>67</v>
       </c>
       <c r="B68" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>112</v>
+        <v>34</v>
       </c>
       <c r="D68" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>타인</v>
+        <f t="shared" si="5"/>
+        <v>나</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -1977,14 +1881,14 @@
         <v>68</v>
       </c>
       <c r="B69" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>113</v>
+        <v>35</v>
       </c>
       <c r="D69" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>나</v>
+        <f t="shared" si="5"/>
+        <v>타인</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -1995,11 +1899,11 @@
         <v>0</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>29</v>
+        <v>99</v>
       </c>
       <c r="D70" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>타인</v>
+        <f t="shared" si="5"/>
+        <v>나</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -2007,13 +1911,13 @@
         <v>70</v>
       </c>
       <c r="B71" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>30</v>
+        <v>83</v>
       </c>
       <c r="D71" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>나</v>
       </c>
     </row>
@@ -2022,13 +1926,13 @@
         <v>71</v>
       </c>
       <c r="B72" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D72" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>타인</v>
       </c>
     </row>
@@ -2037,14 +1941,14 @@
         <v>72</v>
       </c>
       <c r="B73" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>31</v>
+        <v>84</v>
       </c>
       <c r="D73" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>나</v>
+        <f t="shared" si="5"/>
+        <v>타인</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -2052,13 +1956,13 @@
         <v>73</v>
       </c>
       <c r="B74" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>115</v>
+        <v>85</v>
       </c>
       <c r="D74" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>타인</v>
       </c>
     </row>
@@ -2070,10 +1974,10 @@
         <v>1</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>32</v>
+        <v>86</v>
       </c>
       <c r="D75" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>나</v>
       </c>
     </row>
@@ -2082,14 +1986,14 @@
         <v>75</v>
       </c>
       <c r="B76" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>33</v>
+        <v>87</v>
       </c>
       <c r="D76" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>나</v>
+        <f t="shared" ref="D76:D97" si="6">IF(B73=FALSE,"타인","나")</f>
+        <v>타인</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -2097,14 +2001,14 @@
         <v>76</v>
       </c>
       <c r="B77" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>34</v>
+        <v>88</v>
       </c>
       <c r="D77" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>나</v>
+        <f t="shared" si="6"/>
+        <v>타인</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -2112,14 +2016,14 @@
         <v>77</v>
       </c>
       <c r="B78" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>116</v>
+        <v>36</v>
       </c>
       <c r="D78" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>타인</v>
+        <f t="shared" si="6"/>
+        <v>나</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -2130,10 +2034,10 @@
         <v>0</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D79" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>나</v>
       </c>
     </row>
@@ -2142,13 +2046,13 @@
         <v>79</v>
       </c>
       <c r="B80" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>36</v>
+        <v>89</v>
       </c>
       <c r="D80" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>타인</v>
       </c>
     </row>
@@ -2157,14 +2061,14 @@
         <v>80</v>
       </c>
       <c r="B81" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>117</v>
+        <v>38</v>
       </c>
       <c r="D81" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>타인</v>
+        <f t="shared" si="6"/>
+        <v>나</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -2175,10 +2079,11 @@
         <v>0</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>105</v>
+        <v>39</v>
+      </c>
+      <c r="D82" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>타인</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -2189,11 +2094,11 @@
         <v>1</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>37</v>
+        <v>90</v>
       </c>
       <c r="D83" s="2" t="str">
-        <f t="shared" ref="D83:D130" si="2">IF(B80=FALSE,"타인","나")</f>
-        <v>타인</v>
+        <f t="shared" si="6"/>
+        <v>나</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -2201,14 +2106,14 @@
         <v>83</v>
       </c>
       <c r="B84" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>38</v>
+        <v>1</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>98</v>
       </c>
       <c r="D84" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>나</v>
+        <f t="shared" si="6"/>
+        <v>타인</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -2216,13 +2121,13 @@
         <v>84</v>
       </c>
       <c r="B85" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D85" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>타인</v>
       </c>
     </row>
@@ -2234,10 +2139,10 @@
         <v>0</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>119</v>
+        <v>41</v>
       </c>
       <c r="D86" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>나</v>
       </c>
     </row>
@@ -2249,11 +2154,11 @@
         <v>1</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>40</v>
+        <v>91</v>
       </c>
       <c r="D87" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>타인</v>
+        <f t="shared" si="6"/>
+        <v>나</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -2261,14 +2166,14 @@
         <v>87</v>
       </c>
       <c r="B88" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>41</v>
+        <v>104</v>
       </c>
       <c r="D88" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>나</v>
+        <f t="shared" si="6"/>
+        <v>타인</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -2279,10 +2184,10 @@
         <v>0</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="D89" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>타인</v>
       </c>
     </row>
@@ -2294,10 +2199,10 @@
         <v>1</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>121</v>
+        <v>42</v>
       </c>
       <c r="D90" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>나</v>
       </c>
     </row>
@@ -2306,14 +2211,14 @@
         <v>90</v>
       </c>
       <c r="B91" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D91" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>나</v>
+        <f t="shared" si="6"/>
+        <v>타인</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -2321,13 +2226,13 @@
         <v>91</v>
       </c>
       <c r="B92" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D92" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>타인</v>
       </c>
     </row>
@@ -2339,10 +2244,10 @@
         <v>0</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>141</v>
+        <v>92</v>
       </c>
       <c r="D93" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>나</v>
       </c>
     </row>
@@ -2354,11 +2259,11 @@
         <v>0</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>122</v>
+        <v>93</v>
       </c>
       <c r="D94" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>나</v>
+        <f t="shared" si="6"/>
+        <v>타인</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -2369,11 +2274,11 @@
         <v>1</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>44</v>
+        <v>105</v>
       </c>
       <c r="D95" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>타인</v>
+        <f t="shared" si="6"/>
+        <v>나</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -2387,7 +2292,7 @@
         <v>45</v>
       </c>
       <c r="D96" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>타인</v>
       </c>
     </row>
@@ -2402,7 +2307,7 @@
         <v>46</v>
       </c>
       <c r="D97" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>타인</v>
       </c>
     </row>
@@ -2411,14 +2316,14 @@
         <v>97</v>
       </c>
       <c r="B98" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>47</v>
+        <v>94</v>
       </c>
       <c r="D98" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>나</v>
+        <f>IF(B96=FALSE,"타인","나")</f>
+        <v>타인</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -2426,13 +2331,13 @@
         <v>98</v>
       </c>
       <c r="B99" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>123</v>
+        <v>95</v>
       </c>
       <c r="D99" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(B97=FALSE,"타인","나")</f>
         <v>타인</v>
       </c>
     </row>
@@ -2441,14 +2346,13 @@
         <v>99</v>
       </c>
       <c r="B100" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="D100" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>타인</v>
+        <v>108</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -2459,11 +2363,11 @@
         <v>0</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>125</v>
+        <v>96</v>
       </c>
       <c r="D101" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>나</v>
+        <f>IF(B98=FALSE,"타인","나")</f>
+        <v>타인</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -2471,14 +2375,13 @@
         <v>101</v>
       </c>
       <c r="B102" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="D102" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>타인</v>
+        <v>112</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -2486,13 +2389,13 @@
         <v>102</v>
       </c>
       <c r="B103" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>127</v>
+        <v>97</v>
       </c>
       <c r="D103" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(B99=FALSE,"타인","나")</f>
         <v>나</v>
       </c>
     </row>
@@ -2501,13 +2404,13 @@
         <v>103</v>
       </c>
       <c r="B104" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>128</v>
+        <v>49</v>
       </c>
       <c r="D104" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(B100=FALSE,"타인","나")</f>
         <v>타인</v>
       </c>
     </row>
@@ -2518,12 +2421,11 @@
       <c r="B105" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="C105" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="D105" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>타인</v>
+      <c r="C105" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D105" s="3" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -2533,12 +2435,11 @@
       <c r="B106" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="C106" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D106" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>나</v>
+      <c r="C106" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D106" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -2548,12 +2449,11 @@
       <c r="B107" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="C107" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D107" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>나</v>
+      <c r="C107" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D107" s="3" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -2561,445 +2461,101 @@
         <v>107</v>
       </c>
       <c r="B108" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="C108" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="D108" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>타인</v>
+        <v>0</v>
+      </c>
+      <c r="C108" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D108" s="3" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="109" spans="1:4">
-      <c r="A109" s="1">
-        <v>108</v>
-      </c>
-      <c r="B109" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="C109" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D109" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>나</v>
-      </c>
+      <c r="A109" s="1"/>
     </row>
     <row r="110" spans="1:4">
-      <c r="A110" s="1">
-        <v>109</v>
-      </c>
-      <c r="B110" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="C110" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D110" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>타인</v>
-      </c>
+      <c r="A110" s="1"/>
     </row>
     <row r="111" spans="1:4">
-      <c r="A111" s="1">
-        <v>110</v>
-      </c>
-      <c r="B111" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="C111" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="D111" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>나</v>
-      </c>
+      <c r="A111" s="1"/>
     </row>
     <row r="112" spans="1:4">
-      <c r="A112" s="1">
-        <v>111</v>
-      </c>
-      <c r="B112" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="C112" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="D112" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>타인</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4">
-      <c r="A113" s="1">
-        <v>112</v>
-      </c>
-      <c r="B113" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="C113" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D113" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>타인</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4">
-      <c r="A114" s="1">
-        <v>113</v>
-      </c>
-      <c r="B114" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="C114" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D114" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>나</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4">
-      <c r="A115" s="1">
-        <v>114</v>
-      </c>
-      <c r="B115" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="C115" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="D115" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>나</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4">
-      <c r="A116" s="1">
-        <v>115</v>
-      </c>
-      <c r="B116" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="C116" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D116" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>타인</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4">
-      <c r="A117" s="1">
-        <v>116</v>
-      </c>
-      <c r="B117" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="C117" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D117" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>타인</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4">
-      <c r="A118" s="1">
-        <v>117</v>
-      </c>
-      <c r="B118" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="C118" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D118" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>나</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4">
-      <c r="A119" s="1">
-        <v>118</v>
-      </c>
-      <c r="B119" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="C119" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D119" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>타인</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4">
-      <c r="A120" s="1">
-        <v>119</v>
-      </c>
-      <c r="B120" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="C120" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D120" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>타인</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4">
-      <c r="A121" s="1">
-        <v>120</v>
-      </c>
-      <c r="B121" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="C121" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="D121" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>나</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4">
-      <c r="A122" s="1">
-        <v>121</v>
-      </c>
-      <c r="B122" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="C122" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="D122" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>타인</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4">
-      <c r="A123" s="1">
-        <v>122</v>
-      </c>
-      <c r="B123" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="C123" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D123" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>나</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4">
-      <c r="A124" s="1">
-        <v>123</v>
-      </c>
-      <c r="B124" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="C124" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D124" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>타인</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4">
-      <c r="A125" s="1">
-        <v>124</v>
-      </c>
-      <c r="B125" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="C125" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D125" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>타인</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4">
-      <c r="A126" s="1">
-        <v>125</v>
-      </c>
-      <c r="B126" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="C126" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D126" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>나</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4">
-      <c r="A127" s="1">
-        <v>126</v>
-      </c>
-      <c r="B127" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="C127" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="D127" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>타인</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4">
-      <c r="A128" s="1">
-        <v>127</v>
-      </c>
-      <c r="B128" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="C128" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="D128" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>타인</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4">
-      <c r="A129" s="1">
-        <v>128</v>
-      </c>
-      <c r="B129" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="C129" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="D129" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>나</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4">
-      <c r="A130" s="1">
-        <v>129</v>
-      </c>
-      <c r="B130" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="C130" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="D130" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>타인</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4">
-      <c r="A131" s="1">
-        <v>130</v>
-      </c>
-      <c r="B131" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="C131" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D131" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4">
-      <c r="A132" s="1">
-        <v>131</v>
-      </c>
-      <c r="B132" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="C132" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="D132" s="2" t="str">
-        <f>IF(B128=FALSE,"타인","나")</f>
-        <v>나</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4">
-      <c r="A133" s="1">
-        <v>132</v>
-      </c>
-      <c r="B133" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="C133" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D133" s="2" t="str">
-        <f>IF(B129=FALSE,"타인","나")</f>
-        <v>타인</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4">
-      <c r="A134" s="1">
-        <v>133</v>
-      </c>
-      <c r="B134" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="C134" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D134" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4">
-      <c r="A135" s="1">
-        <v>134</v>
-      </c>
-      <c r="B135" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="C135" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D135" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4">
-      <c r="A136" s="1">
-        <v>135</v>
-      </c>
-      <c r="B136" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="C136" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D136" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4">
-      <c r="A137" s="1">
-        <v>136</v>
-      </c>
-      <c r="B137" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="C137" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="D137" s="3" t="s">
-        <v>4</v>
-      </c>
+      <c r="A112" s="1"/>
+    </row>
+    <row r="113" spans="1:1">
+      <c r="A113" s="1"/>
+    </row>
+    <row r="114" spans="1:1">
+      <c r="A114" s="1"/>
+    </row>
+    <row r="115" spans="1:1">
+      <c r="A115" s="1"/>
+    </row>
+    <row r="116" spans="1:1">
+      <c r="A116" s="1"/>
+    </row>
+    <row r="117" spans="1:1">
+      <c r="A117" s="1"/>
+    </row>
+    <row r="118" spans="1:1">
+      <c r="A118" s="1"/>
+    </row>
+    <row r="119" spans="1:1">
+      <c r="A119" s="1"/>
+    </row>
+    <row r="120" spans="1:1">
+      <c r="A120" s="1"/>
+    </row>
+    <row r="121" spans="1:1">
+      <c r="A121" s="1"/>
+    </row>
+    <row r="122" spans="1:1">
+      <c r="A122" s="1"/>
+    </row>
+    <row r="123" spans="1:1">
+      <c r="A123" s="1"/>
+    </row>
+    <row r="124" spans="1:1">
+      <c r="A124" s="1"/>
+    </row>
+    <row r="125" spans="1:1">
+      <c r="A125" s="1"/>
+    </row>
+    <row r="126" spans="1:1">
+      <c r="A126" s="1"/>
+    </row>
+    <row r="127" spans="1:1">
+      <c r="A127" s="1"/>
+    </row>
+    <row r="128" spans="1:1">
+      <c r="A128" s="1"/>
+    </row>
+    <row r="129" spans="1:1">
+      <c r="A129" s="1"/>
+    </row>
+    <row r="130" spans="1:1">
+      <c r="A130" s="1"/>
+    </row>
+    <row r="131" spans="1:1">
+      <c r="A131" s="1"/>
+    </row>
+    <row r="132" spans="1:1">
+      <c r="A132" s="1"/>
+    </row>
+    <row r="133" spans="1:1">
+      <c r="A133" s="1"/>
+    </row>
+    <row r="134" spans="1:1">
+      <c r="A134" s="1"/>
+    </row>
+    <row r="135" spans="1:1">
+      <c r="A135" s="1"/>
+    </row>
+    <row r="136" spans="1:1">
+      <c r="A136" s="1"/>
+    </row>
+    <row r="137" spans="1:1">
+      <c r="A137" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
